--- a/CLM_Datos.xlsx
+++ b/CLM_Datos.xlsx
@@ -2900,8 +2900,8 @@
   </sheetPr>
   <dimension ref="A1:K919"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A874" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K121" activeCellId="0" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14002,7 +14002,9 @@
       <c r="I346" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J346" s="1"/>
+      <c r="J346" s="1" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">

--- a/CLM_Datos.xlsx
+++ b/CLM_Datos.xlsx
@@ -2862,7 +2862,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2873,6 +2873,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2895,18 +2899,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K919"/>
+  <dimension ref="A1:J919"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A871" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L871" activeCellId="0" sqref="L:L"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A599" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L692" activeCellId="0" sqref="L692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.74418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7441860465116"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2697674418605"/>
     <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.74418604651163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.8883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.6511627906977"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.74418604651163"/>
   </cols>
   <sheetData>
@@ -2941,9 +2945,6 @@
       <c r="J1" s="1" t="n">
         <v>764</v>
       </c>
-      <c r="K1" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -2976,9 +2977,6 @@
       <c r="J2" s="1" t="n">
         <v>446</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -3011,9 +3009,6 @@
       <c r="J3" s="1" t="n">
         <v>107113</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -3046,9 +3041,6 @@
       <c r="J4" s="1" t="n">
         <v>650</v>
       </c>
-      <c r="K4" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -3081,9 +3073,6 @@
       <c r="J5" s="1" t="n">
         <v>709</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -3116,9 +3105,6 @@
       <c r="J6" s="1" t="n">
         <v>481</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3151,9 +3137,6 @@
       <c r="J7" s="1" t="n">
         <v>1169</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -3186,9 +3169,6 @@
       <c r="J8" s="1" t="n">
         <v>1233</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -3221,9 +3201,6 @@
       <c r="J9" s="1" t="n">
         <v>15968</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -3256,9 +3233,6 @@
       <c r="J10" s="1" t="n">
         <v>1682</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -3291,9 +3265,6 @@
       <c r="J11" s="1" t="n">
         <v>644</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -3326,9 +3297,6 @@
       <c r="J12" s="1" t="n">
         <v>1888</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -3361,9 +3329,6 @@
       <c r="J13" s="1" t="n">
         <v>427</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -3396,9 +3361,6 @@
       <c r="J14" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="K14" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -3431,9 +3393,6 @@
       <c r="J15" s="1" t="n">
         <v>1495</v>
       </c>
-      <c r="K15" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -3466,9 +3425,6 @@
       <c r="J16" s="1" t="n">
         <v>606</v>
       </c>
-      <c r="K16" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -3501,9 +3457,6 @@
       <c r="J17" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -3536,9 +3489,6 @@
       <c r="J18" s="1" t="n">
         <v>966</v>
       </c>
-      <c r="K18" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3571,9 +3521,6 @@
       <c r="J19" s="1" t="n">
         <v>2293</v>
       </c>
-      <c r="K19" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -3606,9 +3553,6 @@
       <c r="J20" s="1" t="n">
         <v>409</v>
       </c>
-      <c r="K20" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -3641,9 +3585,6 @@
       <c r="J21" s="1" t="n">
         <v>1142</v>
       </c>
-      <c r="K21" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3676,9 +3617,6 @@
       <c r="J22" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="K22" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -3711,9 +3649,6 @@
       <c r="J23" s="1" t="n">
         <v>496</v>
       </c>
-      <c r="K23" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -3746,9 +3681,6 @@
       <c r="J24" s="1" t="n">
         <v>3341</v>
       </c>
-      <c r="K24" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -3781,9 +3713,6 @@
       <c r="J25" s="1" t="n">
         <v>7309</v>
       </c>
-      <c r="K25" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -3816,9 +3745,6 @@
       <c r="J26" s="1" t="n">
         <v>875</v>
       </c>
-      <c r="K26" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -3851,9 +3777,6 @@
       <c r="J27" s="1" t="n">
         <v>3183</v>
       </c>
-      <c r="K27" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -3886,9 +3809,6 @@
       <c r="J28" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="K28" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -3921,9 +3841,6 @@
       <c r="J29" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="K29" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -3956,9 +3873,6 @@
       <c r="J30" s="1" t="n">
         <v>2629</v>
       </c>
-      <c r="K30" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -3991,9 +3905,6 @@
       <c r="J31" s="1" t="n">
         <v>537</v>
       </c>
-      <c r="K31" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -4026,9 +3937,6 @@
       <c r="J32" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="K32" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -4061,9 +3969,6 @@
       <c r="J33" s="1" t="n">
         <v>2146</v>
       </c>
-      <c r="K33" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -4096,9 +4001,6 @@
       <c r="J34" s="1" t="n">
         <v>1574</v>
       </c>
-      <c r="K34" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -4131,9 +4033,6 @@
       <c r="J35" s="1" t="n">
         <v>2039</v>
       </c>
-      <c r="K35" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -4166,9 +4065,6 @@
       <c r="J36" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="K36" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -4201,9 +4097,6 @@
       <c r="J37" s="1" t="n">
         <v>20161</v>
       </c>
-      <c r="K37" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -4236,9 +4129,6 @@
       <c r="J38" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="K38" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -4271,9 +4161,6 @@
       <c r="J39" s="1" t="n">
         <v>967</v>
       </c>
-      <c r="K39" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -4306,9 +4193,6 @@
       <c r="J40" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="K40" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -4341,9 +4225,6 @@
       <c r="J41" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="K41" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -4376,9 +4257,6 @@
       <c r="J42" s="1" t="n">
         <v>802</v>
       </c>
-      <c r="K42" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -4411,9 +4289,6 @@
       <c r="J43" s="1" t="n">
         <v>1354</v>
       </c>
-      <c r="K43" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -4446,9 +4321,6 @@
       <c r="J44" s="1" t="n">
         <v>926</v>
       </c>
-      <c r="K44" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -4481,9 +4353,6 @@
       <c r="J45" s="1" t="n">
         <v>3593</v>
       </c>
-      <c r="K45" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -4516,9 +4385,6 @@
       <c r="J46" s="1" t="n">
         <v>1006</v>
       </c>
-      <c r="K46" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -4551,9 +4417,6 @@
       <c r="J47" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="K47" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -4586,9 +4449,6 @@
       <c r="J48" s="1" t="n">
         <v>1377</v>
       </c>
-      <c r="K48" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -4621,9 +4481,6 @@
       <c r="J49" s="1" t="n">
         <v>786</v>
       </c>
-      <c r="K49" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -4656,9 +4513,6 @@
       <c r="J50" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="K50" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -4691,9 +4545,6 @@
       <c r="J51" s="1" t="n">
         <v>1919</v>
       </c>
-      <c r="K51" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -4726,9 +4577,6 @@
       <c r="J52" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="K52" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -4761,9 +4609,6 @@
       <c r="J53" s="1" t="n">
         <v>3030</v>
       </c>
-      <c r="K53" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -4796,9 +4641,6 @@
       <c r="J54" s="1" t="n">
         <v>382</v>
       </c>
-      <c r="K54" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -4831,9 +4673,6 @@
       <c r="J55" s="1" t="n">
         <v>1177</v>
       </c>
-      <c r="K55" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -4866,9 +4705,6 @@
       <c r="J56" s="1" t="n">
         <v>1636</v>
       </c>
-      <c r="K56" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -4901,9 +4737,6 @@
       <c r="J57" s="1" t="n">
         <v>2071</v>
       </c>
-      <c r="K57" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -4936,9 +4769,6 @@
       <c r="J58" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="K58" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -4971,9 +4801,6 @@
       <c r="J59" s="1" t="n">
         <v>1487</v>
       </c>
-      <c r="K59" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -5006,9 +4833,6 @@
       <c r="J60" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="K60" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -5041,9 +4865,6 @@
       <c r="J61" s="1" t="n">
         <v>668</v>
       </c>
-      <c r="K61" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -5076,9 +4897,6 @@
       <c r="J62" s="1" t="n">
         <v>428</v>
       </c>
-      <c r="K62" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -5111,9 +4929,6 @@
       <c r="J63" s="1" t="n">
         <v>1808</v>
       </c>
-      <c r="K63" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -5146,9 +4961,6 @@
       <c r="J64" s="1" t="n">
         <v>1357</v>
       </c>
-      <c r="K64" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -5181,9 +4993,6 @@
       <c r="J65" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="K65" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -5216,9 +5025,6 @@
       <c r="J66" s="1" t="n">
         <v>394</v>
       </c>
-      <c r="K66" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
@@ -5251,9 +5057,6 @@
       <c r="J67" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="K67" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -5286,9 +5089,6 @@
       <c r="J68" s="1" t="n">
         <v>1119</v>
       </c>
-      <c r="K68" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -5321,9 +5121,6 @@
       <c r="J69" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="K69" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -5356,9 +5153,6 @@
       <c r="J70" s="1" t="n">
         <v>11424</v>
       </c>
-      <c r="K70" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -5391,9 +5185,6 @@
       <c r="J71" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="K71" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -5426,9 +5217,6 @@
       <c r="J72" s="1" t="n">
         <v>877</v>
       </c>
-      <c r="K72" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -5461,9 +5249,6 @@
       <c r="J73" s="1" t="n">
         <v>1492</v>
       </c>
-      <c r="K73" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
@@ -5496,9 +5281,6 @@
       <c r="J74" s="1" t="n">
         <v>4803</v>
       </c>
-      <c r="K74" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -5531,9 +5313,6 @@
       <c r="J75" s="1" t="n">
         <v>5803</v>
       </c>
-      <c r="K75" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -5566,9 +5345,6 @@
       <c r="J76" s="1" t="n">
         <v>1372</v>
       </c>
-      <c r="K76" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -5601,9 +5377,6 @@
       <c r="J77" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="K77" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
@@ -5636,9 +5409,6 @@
       <c r="J78" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="K78" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
@@ -5671,9 +5441,6 @@
       <c r="J79" s="1" t="n">
         <v>989</v>
       </c>
-      <c r="K79" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -5706,9 +5473,6 @@
       <c r="J80" s="1" t="n">
         <v>3134</v>
       </c>
-      <c r="K80" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -5741,9 +5505,6 @@
       <c r="J81" s="1" t="n">
         <v>514</v>
       </c>
-      <c r="K81" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
@@ -5776,9 +5537,6 @@
       <c r="J82" s="1" t="n">
         <v>19140</v>
       </c>
-      <c r="K82" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
@@ -5811,9 +5569,6 @@
       <c r="J83" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="K83" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
@@ -5846,9 +5601,6 @@
       <c r="J84" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="K84" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -5881,9 +5633,6 @@
       <c r="J85" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="K85" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
@@ -5916,9 +5665,6 @@
       <c r="J86" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="K86" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
@@ -5951,9 +5697,6 @@
       <c r="J87" s="2" t="n">
         <v>1918</v>
       </c>
-      <c r="K87" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
@@ -5986,9 +5729,6 @@
       <c r="J88" s="1" t="n">
         <v>1166</v>
       </c>
-      <c r="K88" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
@@ -6021,9 +5761,6 @@
       <c r="J89" s="1" t="n">
         <v>1485</v>
       </c>
-      <c r="K89" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
@@ -6056,9 +5793,6 @@
       <c r="J90" s="1" t="n">
         <v>414</v>
       </c>
-      <c r="K90" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
@@ -6091,9 +5825,6 @@
       <c r="J91" s="1" t="n">
         <v>1083</v>
       </c>
-      <c r="K91" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
@@ -6126,9 +5857,6 @@
       <c r="J92" s="1" t="n">
         <v>18919</v>
       </c>
-      <c r="K92" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
@@ -6161,9 +5889,6 @@
       <c r="J93" s="1" t="n">
         <v>613</v>
       </c>
-      <c r="K93" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
@@ -6196,9 +5921,6 @@
       <c r="J94" s="1" t="n">
         <v>1036</v>
       </c>
-      <c r="K94" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
@@ -6231,9 +5953,6 @@
       <c r="J95" s="1" t="n">
         <v>427</v>
       </c>
-      <c r="K95" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
@@ -6266,9 +5985,6 @@
       <c r="J96" s="1" t="n">
         <v>1461</v>
       </c>
-      <c r="K96" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
@@ -6301,9 +6017,6 @@
       <c r="J97" s="1" t="n">
         <v>880</v>
       </c>
-      <c r="K97" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
@@ -6336,9 +6049,6 @@
       <c r="J98" s="1" t="n">
         <v>3904</v>
       </c>
-      <c r="K98" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
@@ -6371,9 +6081,6 @@
       <c r="J99" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="K99" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
@@ -6406,9 +6113,6 @@
       <c r="J100" s="1" t="n">
         <v>5913</v>
       </c>
-      <c r="K100" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
@@ -6441,9 +6145,6 @@
       <c r="J101" s="1" t="n">
         <v>444</v>
       </c>
-      <c r="K101" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
@@ -6476,9 +6177,6 @@
       <c r="J102" s="1" t="n">
         <v>4517</v>
       </c>
-      <c r="K102" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
@@ -6511,9 +6209,6 @@
       <c r="J103" s="1" t="n">
         <v>674</v>
       </c>
-      <c r="K103" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
@@ -6546,9 +6241,6 @@
       <c r="J104" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="K104" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
@@ -6581,9 +6273,6 @@
       <c r="J105" s="1" t="n">
         <v>425</v>
       </c>
-      <c r="K105" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
@@ -6616,9 +6305,6 @@
       <c r="J106" s="1" t="n">
         <v>822</v>
       </c>
-      <c r="K106" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
@@ -6651,9 +6337,6 @@
       <c r="J107" s="1" t="n">
         <v>5492</v>
       </c>
-      <c r="K107" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
@@ -6686,9 +6369,6 @@
       <c r="J108" s="1" t="n">
         <v>4639</v>
       </c>
-      <c r="K108" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
@@ -6721,9 +6401,6 @@
       <c r="J109" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="K109" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
@@ -6756,9 +6433,6 @@
       <c r="J110" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="K110" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
@@ -6791,9 +6465,6 @@
       <c r="J111" s="1" t="n">
         <v>8752</v>
       </c>
-      <c r="K111" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
@@ -6826,9 +6497,6 @@
       <c r="J112" s="1" t="n">
         <v>884</v>
       </c>
-      <c r="K112" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
@@ -6861,9 +6529,6 @@
       <c r="J113" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="K113" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
@@ -6896,9 +6561,6 @@
       <c r="J114" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="K114" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
@@ -6931,9 +6593,6 @@
       <c r="J115" s="1" t="n">
         <v>2869</v>
       </c>
-      <c r="K115" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
@@ -6966,9 +6625,6 @@
       <c r="J116" s="1" t="n">
         <v>10369</v>
       </c>
-      <c r="K116" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
@@ -7001,9 +6657,6 @@
       <c r="J117" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="K117" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
@@ -7036,9 +6689,6 @@
       <c r="J118" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="K118" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
@@ -7071,9 +6721,6 @@
       <c r="J119" s="1" t="n">
         <v>2479</v>
       </c>
-      <c r="K119" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
@@ -7106,9 +6753,6 @@
       <c r="J120" s="1" t="n">
         <v>1057</v>
       </c>
-      <c r="K120" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
@@ -7141,9 +6785,6 @@
       <c r="J121" s="1" t="n">
         <v>1476</v>
       </c>
-      <c r="K121" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
@@ -7176,9 +6817,6 @@
       <c r="J122" s="1" t="n">
         <v>1583</v>
       </c>
-      <c r="K122" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
@@ -7211,9 +6849,6 @@
       <c r="J123" s="1" t="n">
         <v>43643</v>
       </c>
-      <c r="K123" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
@@ -7246,9 +6881,6 @@
       <c r="J124" s="1" t="n">
         <v>849</v>
       </c>
-      <c r="K124" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
@@ -7281,9 +6913,6 @@
       <c r="J125" s="1" t="n">
         <v>730</v>
       </c>
-      <c r="K125" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
@@ -7316,9 +6945,6 @@
       <c r="J126" s="1" t="n">
         <v>832</v>
       </c>
-      <c r="K126" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
@@ -7351,9 +6977,6 @@
       <c r="J127" s="1" t="n">
         <v>11195</v>
       </c>
-      <c r="K127" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
@@ -7386,9 +7009,6 @@
       <c r="J128" s="1" t="n">
         <v>760</v>
       </c>
-      <c r="K128" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
@@ -7421,9 +7041,6 @@
       <c r="J129" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="K129" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
@@ -7456,9 +7073,6 @@
       <c r="J130" s="1" t="n">
         <v>940</v>
       </c>
-      <c r="K130" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
@@ -7491,9 +7105,6 @@
       <c r="J131" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="K131" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
@@ -7526,9 +7137,6 @@
       <c r="J132" s="1" t="n">
         <v>2469</v>
       </c>
-      <c r="K132" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
@@ -7561,9 +7169,6 @@
       <c r="J133" s="1" t="n">
         <v>551</v>
       </c>
-      <c r="K133" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
@@ -7596,9 +7201,6 @@
       <c r="J134" s="1" t="n">
         <v>726</v>
       </c>
-      <c r="K134" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
@@ -7631,9 +7233,6 @@
       <c r="J135" s="1" t="n">
         <v>5849</v>
       </c>
-      <c r="K135" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
@@ -7666,9 +7265,6 @@
       <c r="J136" s="1" t="n">
         <v>460</v>
       </c>
-      <c r="K136" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
@@ -7701,9 +7297,6 @@
       <c r="J137" s="1" t="n">
         <v>852</v>
       </c>
-      <c r="K137" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
@@ -7736,9 +7329,6 @@
       <c r="J138" s="1" t="n">
         <v>520</v>
       </c>
-      <c r="K138" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
@@ -7771,9 +7361,6 @@
       <c r="J139" s="1" t="n">
         <v>703</v>
       </c>
-      <c r="K139" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
@@ -7806,9 +7393,6 @@
       <c r="J140" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="K140" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
@@ -7841,9 +7425,6 @@
       <c r="J141" s="1" t="n">
         <v>6843</v>
       </c>
-      <c r="K141" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
@@ -7876,9 +7457,6 @@
       <c r="J142" s="1" t="n">
         <v>13194</v>
       </c>
-      <c r="K142" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
@@ -7911,9 +7489,6 @@
       <c r="J143" s="1" t="n">
         <v>4731</v>
       </c>
-      <c r="K143" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
@@ -7946,9 +7521,6 @@
       <c r="J144" s="1" t="n">
         <v>560</v>
       </c>
-      <c r="K144" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
@@ -7981,9 +7553,6 @@
       <c r="J145" s="1" t="n">
         <v>9447</v>
       </c>
-      <c r="K145" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
@@ -8016,9 +7585,6 @@
       <c r="J146" s="1" t="n">
         <v>1117</v>
       </c>
-      <c r="K146" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
@@ -8051,9 +7617,6 @@
       <c r="J147" s="1" t="n">
         <v>3504</v>
       </c>
-      <c r="K147" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
@@ -8086,9 +7649,6 @@
       <c r="J148" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="K148" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
@@ -8121,9 +7681,6 @@
       <c r="J149" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="K149" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
@@ -8156,9 +7713,6 @@
       <c r="J150" s="1" t="n">
         <v>6251</v>
       </c>
-      <c r="K150" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
@@ -8191,9 +7745,6 @@
       <c r="J151" s="1" t="n">
         <v>579</v>
       </c>
-      <c r="K151" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
@@ -8226,9 +7777,6 @@
       <c r="J152" s="1" t="n">
         <v>3250</v>
       </c>
-      <c r="K152" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
@@ -8261,9 +7809,6 @@
       <c r="J153" s="1" t="n">
         <v>1605</v>
       </c>
-      <c r="K153" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
@@ -8296,9 +7841,6 @@
       <c r="J154" s="1" t="n">
         <v>3170</v>
       </c>
-      <c r="K154" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
@@ -8331,9 +7873,6 @@
       <c r="J155" s="1" t="n">
         <v>2623</v>
       </c>
-      <c r="K155" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
@@ -8366,9 +7905,6 @@
       <c r="J156" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="K156" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
@@ -8401,9 +7937,6 @@
       <c r="J157" s="1" t="n">
         <v>1088</v>
       </c>
-      <c r="K157" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
@@ -8436,9 +7969,6 @@
       <c r="J158" s="1" t="n">
         <v>708</v>
       </c>
-      <c r="K158" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
@@ -8471,9 +8001,6 @@
       <c r="J159" s="1" t="n">
         <v>727</v>
       </c>
-      <c r="K159" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
@@ -8506,9 +8033,6 @@
       <c r="J160" s="1" t="n">
         <v>28144</v>
       </c>
-      <c r="K160" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
@@ -8541,9 +8065,6 @@
       <c r="J161" s="1" t="n">
         <v>940</v>
       </c>
-      <c r="K161" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
@@ -8576,9 +8097,6 @@
       <c r="J162" s="1" t="n">
         <v>1078</v>
       </c>
-      <c r="K162" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
@@ -8611,9 +8129,6 @@
       <c r="J163" s="1" t="n">
         <v>382</v>
       </c>
-      <c r="K163" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
@@ -8646,9 +8161,6 @@
       <c r="J164" s="1" t="n">
         <v>465</v>
       </c>
-      <c r="K164" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
@@ -8681,9 +8193,6 @@
       <c r="J165" s="1" t="n">
         <v>941</v>
       </c>
-      <c r="K165" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
@@ -8716,9 +8225,6 @@
       <c r="J166" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="K166" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
@@ -8751,9 +8257,6 @@
       <c r="J167" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="K167" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
@@ -8786,9 +8289,6 @@
       <c r="J168" s="1" t="n">
         <v>3541</v>
       </c>
-      <c r="K168" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
@@ -8821,9 +8321,6 @@
       <c r="J169" s="1" t="n">
         <v>10159</v>
       </c>
-      <c r="K169" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
@@ -8856,9 +8353,6 @@
       <c r="J170" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="K170" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
@@ -8891,9 +8385,6 @@
       <c r="J171" s="1" t="n">
         <v>10438</v>
       </c>
-      <c r="K171" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
@@ -8926,9 +8417,6 @@
       <c r="J172" s="1" t="n">
         <v>567</v>
       </c>
-      <c r="K172" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
@@ -8961,9 +8449,6 @@
       <c r="J173" s="1" t="n">
         <v>25116</v>
       </c>
-      <c r="K173" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
@@ -8996,9 +8481,6 @@
       <c r="J174" s="2" t="n">
         <v>2479</v>
       </c>
-      <c r="K174" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
@@ -9031,9 +8513,6 @@
       <c r="J175" s="2" t="n">
         <v>784</v>
       </c>
-      <c r="K175" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
@@ -9066,9 +8545,6 @@
       <c r="J176" s="2" t="n">
         <v>2267</v>
       </c>
-      <c r="K176" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
@@ -9101,9 +8577,6 @@
       <c r="J177" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="K177" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
@@ -9136,9 +8609,6 @@
       <c r="J178" s="1" t="n">
         <v>18638</v>
       </c>
-      <c r="K178" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
@@ -9171,9 +8641,6 @@
       <c r="J179" s="2" t="n">
         <v>478</v>
       </c>
-      <c r="K179" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
@@ -9206,9 +8673,6 @@
       <c r="J180" s="1" t="n">
         <v>1432</v>
       </c>
-      <c r="K180" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
@@ -9241,9 +8705,6 @@
       <c r="J181" s="1" t="n">
         <v>1030</v>
       </c>
-      <c r="K181" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
@@ -9276,9 +8737,6 @@
       <c r="J182" s="1" t="n">
         <v>426</v>
       </c>
-      <c r="K182" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
@@ -9311,9 +8769,6 @@
       <c r="J183" s="1" t="n">
         <v>1861</v>
       </c>
-      <c r="K183" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
@@ -9346,9 +8801,6 @@
       <c r="J184" s="1" t="n">
         <v>3757</v>
       </c>
-      <c r="K184" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
@@ -9381,9 +8833,6 @@
       <c r="J185" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="K185" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
@@ -9416,9 +8865,6 @@
       <c r="J186" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="K186" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
@@ -9451,9 +8897,6 @@
       <c r="J187" s="1" t="n">
         <v>6593</v>
       </c>
-      <c r="K187" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
@@ -9486,9 +8929,6 @@
       <c r="J188" s="1" t="n">
         <v>2215</v>
       </c>
-      <c r="K188" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
@@ -9521,9 +8961,6 @@
       <c r="J189" s="1" t="n">
         <v>1908</v>
       </c>
-      <c r="K189" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
@@ -9556,9 +8993,6 @@
       <c r="J190" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="K190" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
@@ -9591,9 +9025,6 @@
       <c r="J191" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="K191" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
@@ -9626,9 +9057,6 @@
       <c r="J192" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="K192" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
@@ -9661,9 +9089,6 @@
       <c r="J193" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="K193" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
@@ -9696,9 +9121,6 @@
       <c r="J194" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="K194" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
@@ -9731,9 +9153,6 @@
       <c r="J195" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="K195" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
@@ -9766,9 +9185,6 @@
       <c r="J196" s="1" t="n">
         <v>1419</v>
       </c>
-      <c r="K196" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
@@ -9801,9 +9217,6 @@
       <c r="J197" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="K197" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
@@ -9836,9 +9249,6 @@
       <c r="J198" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="K198" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
@@ -9871,9 +9281,6 @@
       <c r="J199" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="K199" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
@@ -9906,9 +9313,6 @@
       <c r="J200" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="K200" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
@@ -9941,9 +9345,6 @@
       <c r="J201" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="K201" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
@@ -9976,9 +9377,6 @@
       <c r="J202" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="K202" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
@@ -10011,9 +9409,6 @@
       <c r="J203" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="K203" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
@@ -10046,9 +9441,6 @@
       <c r="J204" s="1" t="n">
         <v>510</v>
       </c>
-      <c r="K204" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
@@ -10081,9 +9473,6 @@
       <c r="J205" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="K205" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
@@ -10116,9 +9505,6 @@
       <c r="J206" s="1" t="n">
         <v>434</v>
       </c>
-      <c r="K206" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
@@ -10151,9 +9537,6 @@
       <c r="J207" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="K207" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
@@ -10186,9 +9569,6 @@
       <c r="J208" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="K208" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
@@ -10221,9 +9601,6 @@
       <c r="J209" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="K209" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
@@ -10256,9 +9633,6 @@
       <c r="J210" s="1" t="n">
         <v>1298</v>
       </c>
-      <c r="K210" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
@@ -10291,9 +9665,6 @@
       <c r="J211" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="K211" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
@@ -10326,9 +9697,6 @@
       <c r="J212" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="K212" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
@@ -10361,9 +9729,6 @@
       <c r="J213" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="K213" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
@@ -10396,9 +9761,6 @@
       <c r="J214" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="K214" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
@@ -10431,9 +9793,6 @@
       <c r="J215" s="1" t="n">
         <v>846</v>
       </c>
-      <c r="K215" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
@@ -10466,9 +9825,6 @@
       <c r="J216" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="K216" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
@@ -10501,9 +9857,6 @@
       <c r="J217" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="K217" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
@@ -10536,9 +9889,6 @@
       <c r="J218" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="K218" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
@@ -10571,9 +9921,6 @@
       <c r="J219" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="K219" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
@@ -10606,9 +9953,6 @@
       <c r="J220" s="1" t="n">
         <v>1469</v>
       </c>
-      <c r="K220" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
@@ -10641,9 +9985,6 @@
       <c r="J221" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="K221" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
@@ -10676,9 +10017,6 @@
       <c r="J222" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="K222" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
@@ -10711,9 +10049,6 @@
       <c r="J223" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="K223" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
@@ -10746,9 +10081,6 @@
       <c r="J224" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K224" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
@@ -10781,9 +10113,6 @@
       <c r="J225" s="1" t="n">
         <v>441</v>
       </c>
-      <c r="K225" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
@@ -10816,9 +10145,6 @@
       <c r="J226" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="K226" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
@@ -10851,9 +10177,6 @@
       <c r="J227" s="1" t="n">
         <v>397</v>
       </c>
-      <c r="K227" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
@@ -10886,9 +10209,6 @@
       <c r="J228" s="1" t="n">
         <v>1179</v>
       </c>
-      <c r="K228" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
@@ -10921,9 +10241,6 @@
       <c r="J229" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="K229" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
@@ -10956,9 +10273,6 @@
       <c r="J230" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="K230" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
@@ -10991,9 +10305,6 @@
       <c r="J231" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="K231" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
@@ -11026,9 +10337,6 @@
       <c r="J232" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="K232" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
@@ -11061,9 +10369,6 @@
       <c r="J233" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="K233" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
@@ -11096,9 +10401,6 @@
       <c r="J234" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="K234" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
@@ -11131,9 +10433,6 @@
       <c r="J235" s="1" t="n">
         <v>464</v>
       </c>
-      <c r="K235" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
@@ -11166,9 +10465,6 @@
       <c r="J236" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="K236" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
@@ -11201,9 +10497,6 @@
       <c r="J237" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="K237" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
@@ -11236,9 +10529,6 @@
       <c r="J238" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="K238" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
@@ -11271,9 +10561,6 @@
       <c r="J239" s="1" t="n">
         <v>648</v>
       </c>
-      <c r="K239" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
@@ -11306,9 +10593,6 @@
       <c r="J240" s="1" t="n">
         <v>537</v>
       </c>
-      <c r="K240" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
@@ -11341,9 +10625,6 @@
       <c r="J241" s="1" t="n">
         <v>927</v>
       </c>
-      <c r="K241" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
@@ -11376,9 +10657,6 @@
       <c r="J242" s="1" t="n">
         <v>495</v>
       </c>
-      <c r="K242" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
@@ -11411,9 +10689,6 @@
       <c r="J243" s="1" t="n">
         <v>524</v>
       </c>
-      <c r="K243" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
@@ -11446,9 +10721,6 @@
       <c r="J244" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="K244" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
@@ -11481,9 +10753,6 @@
       <c r="J245" s="1" t="n">
         <v>702</v>
       </c>
-      <c r="K245" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
@@ -11516,9 +10785,6 @@
       <c r="J246" s="1" t="n">
         <v>1232</v>
       </c>
-      <c r="K246" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
@@ -11551,9 +10817,6 @@
       <c r="J247" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="K247" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
@@ -11586,9 +10849,6 @@
       <c r="J248" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="K248" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
@@ -11621,9 +10881,6 @@
       <c r="J249" s="1" t="n">
         <v>816</v>
       </c>
-      <c r="K249" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
@@ -11656,9 +10913,6 @@
       <c r="J250" s="1" t="n">
         <v>484</v>
       </c>
-      <c r="K250" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
@@ -11691,9 +10945,6 @@
       <c r="J251" s="1" t="n">
         <v>3232</v>
       </c>
-      <c r="K251" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
@@ -11726,9 +10977,6 @@
       <c r="J252" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="K252" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
@@ -11761,9 +11009,6 @@
       <c r="J253" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="K253" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
@@ -11796,9 +11041,6 @@
       <c r="J254" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="K254" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
@@ -11831,9 +11073,6 @@
       <c r="J255" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="K255" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
@@ -11866,9 +11105,6 @@
       <c r="J256" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="K256" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
@@ -11901,9 +11137,6 @@
       <c r="J257" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="K257" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
@@ -11936,9 +11169,6 @@
       <c r="J258" s="1" t="n">
         <v>551</v>
       </c>
-      <c r="K258" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
@@ -11971,9 +11201,6 @@
       <c r="J259" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="K259" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
@@ -12006,9 +11233,6 @@
       <c r="J260" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="K260" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
@@ -12041,9 +11265,6 @@
       <c r="J261" s="1" t="n">
         <v>36210</v>
       </c>
-      <c r="K261" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
@@ -12076,9 +11297,6 @@
       <c r="J262" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="K262" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
@@ -12111,9 +11329,6 @@
       <c r="J263" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="K263" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
@@ -12146,9 +11361,6 @@
       <c r="J264" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="K264" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
@@ -12181,9 +11393,6 @@
       <c r="J265" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="K265" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
@@ -12216,9 +11425,6 @@
       <c r="J266" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="K266" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
@@ -12251,9 +11457,6 @@
       <c r="J267" s="1" t="n">
         <v>1031</v>
       </c>
-      <c r="K267" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
@@ -12286,9 +11489,6 @@
       <c r="J268" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="K268" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
@@ -12321,9 +11521,6 @@
       <c r="J269" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="K269" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
@@ -12356,9 +11553,6 @@
       <c r="J270" s="1" t="n">
         <v>428</v>
       </c>
-      <c r="K270" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
@@ -12391,9 +11585,6 @@
       <c r="J271" s="1" t="n">
         <v>420</v>
       </c>
-      <c r="K271" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
@@ -12426,9 +11617,6 @@
       <c r="J272" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="K272" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
@@ -12461,9 +11649,6 @@
       <c r="J273" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="K273" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
@@ -12496,9 +11681,6 @@
       <c r="J274" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="K274" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
@@ -12531,9 +11713,6 @@
       <c r="J275" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="K275" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
@@ -12566,9 +11745,6 @@
       <c r="J276" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="K276" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
@@ -12601,9 +11777,6 @@
       <c r="J277" s="2" t="n">
         <v>563</v>
       </c>
-      <c r="K277" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
@@ -12636,9 +11809,6 @@
       <c r="J278" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="K278" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
@@ -12671,9 +11841,6 @@
       <c r="J279" s="1" t="n">
         <v>622</v>
       </c>
-      <c r="K279" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
@@ -12706,9 +11873,6 @@
       <c r="J280" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="K280" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
@@ -12741,9 +11905,6 @@
       <c r="J281" s="2" t="n">
         <v>677</v>
       </c>
-      <c r="K281" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
@@ -12776,9 +11937,6 @@
       <c r="J282" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="K282" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
@@ -12811,9 +11969,6 @@
       <c r="J283" s="1" t="n">
         <v>1704</v>
       </c>
-      <c r="K283" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
@@ -12846,9 +12001,6 @@
       <c r="J284" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="K284" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
@@ -12881,9 +12033,6 @@
       <c r="J285" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="K285" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
@@ -12916,9 +12065,6 @@
       <c r="J286" s="1" t="n">
         <v>2730</v>
       </c>
-      <c r="K286" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
@@ -12951,9 +12097,6 @@
       <c r="J287" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="K287" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
@@ -12986,9 +12129,6 @@
       <c r="J288" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="K288" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
@@ -13021,9 +12161,6 @@
       <c r="J289" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="K289" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
@@ -13056,9 +12193,6 @@
       <c r="J290" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="K290" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
@@ -13091,9 +12225,6 @@
       <c r="J291" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="K291" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
@@ -13126,9 +12257,6 @@
       <c r="J292" s="1" t="n">
         <v>1573</v>
       </c>
-      <c r="K292" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
@@ -13161,9 +12289,6 @@
       <c r="J293" s="1" t="n">
         <v>5051</v>
       </c>
-      <c r="K293" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
@@ -13196,9 +12321,6 @@
       <c r="J294" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="K294" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
@@ -13231,9 +12353,6 @@
       <c r="J295" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="K295" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
@@ -13266,9 +12385,6 @@
       <c r="J296" s="1" t="n">
         <v>1145</v>
       </c>
-      <c r="K296" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
@@ -13301,9 +12417,6 @@
       <c r="J297" s="1" t="n">
         <v>1295</v>
       </c>
-      <c r="K297" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
@@ -13336,9 +12449,6 @@
       <c r="J298" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="K298" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
@@ -13371,9 +12481,6 @@
       <c r="J299" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="K299" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
@@ -13406,9 +12513,6 @@
       <c r="J300" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="K300" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
@@ -13441,9 +12545,6 @@
       <c r="J301" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="K301" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
@@ -13476,9 +12577,6 @@
       <c r="J302" s="1" t="n">
         <v>1939</v>
       </c>
-      <c r="K302" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
@@ -13511,9 +12609,6 @@
       <c r="J303" s="1" t="n">
         <v>2083</v>
       </c>
-      <c r="K303" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
@@ -13546,9 +12641,6 @@
       <c r="J304" s="1" t="n">
         <v>1016</v>
       </c>
-      <c r="K304" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
@@ -13581,9 +12673,6 @@
       <c r="J305" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="K305" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
@@ -13616,9 +12705,6 @@
       <c r="J306" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="K306" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
@@ -13651,9 +12737,6 @@
       <c r="J307" s="1" t="n">
         <v>673</v>
       </c>
-      <c r="K307" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
@@ -13686,9 +12769,6 @@
       <c r="J308" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="K308" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
@@ -13721,9 +12801,6 @@
       <c r="J309" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="K309" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
@@ -13756,9 +12833,6 @@
       <c r="J310" s="1" t="n">
         <v>5035</v>
       </c>
-      <c r="K310" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
@@ -13791,9 +12865,6 @@
       <c r="J311" s="1" t="n">
         <v>5530</v>
       </c>
-      <c r="K311" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
@@ -13826,9 +12897,6 @@
       <c r="J312" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="K312" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
@@ -13861,9 +12929,6 @@
       <c r="J313" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="K313" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
@@ -13896,9 +12961,6 @@
       <c r="J314" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="K314" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
@@ -13931,9 +12993,6 @@
       <c r="J315" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="K315" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
@@ -13966,9 +13025,6 @@
       <c r="J316" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="K316" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
@@ -14001,9 +13057,6 @@
       <c r="J317" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="K317" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
@@ -14036,9 +13089,6 @@
       <c r="J318" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="K318" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
@@ -14071,9 +13121,6 @@
       <c r="J319" s="1" t="n">
         <v>462</v>
       </c>
-      <c r="K319" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
@@ -14106,9 +13153,6 @@
       <c r="J320" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="K320" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
@@ -14141,9 +13185,6 @@
       <c r="J321" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="K321" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
@@ -14176,9 +13217,6 @@
       <c r="J322" s="1" t="n">
         <v>590</v>
       </c>
-      <c r="K322" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
@@ -14211,9 +13249,6 @@
       <c r="J323" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="K323" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
@@ -14246,9 +13281,6 @@
       <c r="J324" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="K324" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
@@ -14281,9 +13313,6 @@
       <c r="J325" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="K325" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
@@ -14316,9 +13345,6 @@
       <c r="J326" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="K326" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
@@ -14351,9 +13377,6 @@
       <c r="J327" s="1" t="n">
         <v>949</v>
       </c>
-      <c r="K327" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
@@ -14377,8 +13400,8 @@
       <c r="G328" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H328" s="0" t="n">
-        <v>0</v>
+      <c r="H328" s="3" t="n">
+        <v>38543</v>
       </c>
       <c r="I328" s="0" t="n">
         <v>0</v>
@@ -14386,9 +13409,6 @@
       <c r="J328" s="1" t="n">
         <v>5898</v>
       </c>
-      <c r="K328" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
@@ -14421,9 +13441,6 @@
       <c r="J329" s="1" t="n">
         <v>628</v>
       </c>
-      <c r="K329" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
@@ -14456,9 +13473,6 @@
       <c r="J330" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="K330" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
@@ -14491,9 +13505,6 @@
       <c r="J331" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="K331" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
@@ -14526,9 +13537,6 @@
       <c r="J332" s="1" t="n">
         <v>644</v>
       </c>
-      <c r="K332" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
@@ -14561,9 +13569,6 @@
       <c r="J333" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="K333" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
@@ -14596,9 +13601,6 @@
       <c r="J334" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="K334" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
@@ -14631,9 +13633,6 @@
       <c r="J335" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="K335" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
@@ -14666,9 +13665,6 @@
       <c r="J336" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="K336" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
@@ -14701,9 +13697,6 @@
       <c r="J337" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="K337" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
@@ -14736,9 +13729,6 @@
       <c r="J338" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="K338" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
@@ -14771,9 +13761,6 @@
       <c r="J339" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="K339" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
@@ -14806,9 +13793,6 @@
       <c r="J340" s="1" t="n">
         <v>441</v>
       </c>
-      <c r="K340" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
@@ -14841,9 +13825,6 @@
       <c r="J341" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="K341" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
@@ -14876,9 +13857,6 @@
       <c r="J342" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="K342" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
@@ -14911,9 +13889,6 @@
       <c r="J343" s="1" t="n">
         <v>763</v>
       </c>
-      <c r="K343" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
@@ -14946,9 +13921,6 @@
       <c r="J344" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="K344" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
@@ -14981,9 +13953,6 @@
       <c r="J345" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="K345" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
@@ -15016,9 +13985,6 @@
       <c r="J346" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="K346" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
@@ -15051,9 +14017,6 @@
       <c r="J347" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="K347" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
@@ -15086,9 +14049,6 @@
       <c r="J348" s="1" t="n">
         <v>6123</v>
       </c>
-      <c r="K348" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
@@ -15121,9 +14081,6 @@
       <c r="J349" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="K349" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
@@ -15156,9 +14113,6 @@
       <c r="J350" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="K350" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
@@ -15191,9 +14145,6 @@
       <c r="J351" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="K351" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
@@ -15226,9 +14177,6 @@
       <c r="J352" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="K352" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
@@ -15261,9 +14209,6 @@
       <c r="J353" s="1" t="n">
         <v>495</v>
       </c>
-      <c r="K353" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
@@ -15296,9 +14241,6 @@
       <c r="J354" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="K354" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
@@ -15331,9 +14273,6 @@
       <c r="J355" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="K355" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
@@ -15366,9 +14305,6 @@
       <c r="J356" s="1" t="n">
         <v>457</v>
       </c>
-      <c r="K356" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
@@ -15401,9 +14337,6 @@
       <c r="J357" s="1" t="n">
         <v>5734</v>
       </c>
-      <c r="K357" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
@@ -15436,9 +14369,6 @@
       <c r="J358" s="1" t="n">
         <v>1538</v>
       </c>
-      <c r="K358" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
@@ -15471,9 +14401,6 @@
       <c r="J359" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="K359" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
@@ -15506,9 +14433,6 @@
       <c r="J360" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="K360" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
@@ -15541,9 +14465,6 @@
       <c r="J361" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="K361" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
@@ -15576,9 +14497,6 @@
       <c r="J362" s="1" t="n">
         <v>615</v>
       </c>
-      <c r="K362" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
@@ -15611,9 +14529,6 @@
       <c r="J363" s="1" t="n">
         <v>468</v>
       </c>
-      <c r="K363" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
@@ -15646,9 +14561,6 @@
       <c r="J364" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="K364" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
@@ -15681,9 +14593,6 @@
       <c r="J365" s="1" t="n">
         <v>1221</v>
       </c>
-      <c r="K365" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
@@ -15716,9 +14625,6 @@
       <c r="J366" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K366" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
@@ -15751,9 +14657,6 @@
       <c r="J367" s="1" t="n">
         <v>693</v>
       </c>
-      <c r="K367" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
@@ -15786,9 +14689,6 @@
       <c r="J368" s="1" t="n">
         <v>856</v>
       </c>
-      <c r="K368" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
@@ -15812,8 +14712,8 @@
       <c r="G369" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H369" s="0" t="n">
-        <v>0</v>
+      <c r="H369" s="3" t="n">
+        <v>38543</v>
       </c>
       <c r="I369" s="0" t="n">
         <v>0</v>
@@ -15821,9 +14721,6 @@
       <c r="J369" s="1" t="n">
         <v>10383</v>
       </c>
-      <c r="K369" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
@@ -15856,9 +14753,6 @@
       <c r="J370" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="K370" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
@@ -15891,9 +14785,6 @@
       <c r="J371" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K371" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
@@ -15926,9 +14817,6 @@
       <c r="J372" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="K372" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
@@ -15961,9 +14849,6 @@
       <c r="J373" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="K373" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
@@ -15996,9 +14881,6 @@
       <c r="J374" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="K374" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
@@ -16031,9 +14913,6 @@
       <c r="J375" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="K375" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
@@ -16066,9 +14945,6 @@
       <c r="J376" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="K376" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
@@ -16101,9 +14977,6 @@
       <c r="J377" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="K377" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
@@ -16136,9 +15009,6 @@
       <c r="J378" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="K378" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
@@ -16171,9 +15041,6 @@
       <c r="J379" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="K379" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
@@ -16206,9 +15073,6 @@
       <c r="J380" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="K380" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
@@ -16241,9 +15105,6 @@
       <c r="J381" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="K381" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
@@ -16276,9 +15137,6 @@
       <c r="J382" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="K382" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
@@ -16311,9 +15169,6 @@
       <c r="J383" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="K383" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
@@ -16346,9 +15201,6 @@
       <c r="J384" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="K384" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
@@ -16381,9 +15233,6 @@
       <c r="J385" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="K385" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
@@ -16416,9 +15265,6 @@
       <c r="J386" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="K386" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
@@ -16451,9 +15297,6 @@
       <c r="J387" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K387" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
@@ -16486,9 +15329,6 @@
       <c r="J388" s="1" t="n">
         <v>1385</v>
       </c>
-      <c r="K388" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
@@ -16521,9 +15361,6 @@
       <c r="J389" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="K389" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
@@ -16556,9 +15393,6 @@
       <c r="J390" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="K390" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
@@ -16591,9 +15425,6 @@
       <c r="J391" s="1" t="n">
         <v>1216</v>
       </c>
-      <c r="K391" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
@@ -16626,9 +15457,6 @@
       <c r="J392" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="K392" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
@@ -16661,9 +15489,6 @@
       <c r="J393" s="1" t="n">
         <v>493</v>
       </c>
-      <c r="K393" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
@@ -16696,9 +15521,6 @@
       <c r="J394" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="K394" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
@@ -16731,9 +15553,6 @@
       <c r="J395" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="K395" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
@@ -16766,9 +15585,6 @@
       <c r="J396" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="K396" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
@@ -16801,9 +15617,6 @@
       <c r="J397" s="1" t="n">
         <v>422</v>
       </c>
-      <c r="K397" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
@@ -16836,9 +15649,6 @@
       <c r="J398" s="1" t="n">
         <v>757</v>
       </c>
-      <c r="K398" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
@@ -16871,9 +15681,6 @@
       <c r="J399" s="1" t="n">
         <v>546</v>
       </c>
-      <c r="K399" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
@@ -16906,9 +15713,6 @@
       <c r="J400" s="1" t="n">
         <v>489</v>
       </c>
-      <c r="K400" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
@@ -16941,9 +15745,6 @@
       <c r="J401" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="K401" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
@@ -16976,9 +15777,6 @@
       <c r="J402" s="1" t="n">
         <v>1006</v>
       </c>
-      <c r="K402" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
@@ -17011,9 +15809,6 @@
       <c r="J403" s="1" t="n">
         <v>2121</v>
       </c>
-      <c r="K403" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
@@ -17046,9 +15841,6 @@
       <c r="J404" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="K404" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
@@ -17081,9 +15873,6 @@
       <c r="J405" s="1" t="n">
         <v>2347</v>
       </c>
-      <c r="K405" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
@@ -17116,9 +15905,6 @@
       <c r="J406" s="1" t="n">
         <v>399</v>
       </c>
-      <c r="K406" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
@@ -17151,9 +15937,6 @@
       <c r="J407" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="K407" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
@@ -17186,9 +15969,6 @@
       <c r="J408" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="K408" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
@@ -17221,9 +16001,6 @@
       <c r="J409" s="1" t="n">
         <v>993</v>
       </c>
-      <c r="K409" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
@@ -17256,9 +16033,6 @@
       <c r="J410" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="K410" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
@@ -17291,9 +16065,6 @@
       <c r="J411" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="K411" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
@@ -17326,9 +16097,6 @@
       <c r="J412" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="K412" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
@@ -17361,9 +16129,6 @@
       <c r="J413" s="1" t="n">
         <v>523</v>
       </c>
-      <c r="K413" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
@@ -17396,9 +16161,6 @@
       <c r="J414" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="K414" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
@@ -17431,9 +16193,6 @@
       <c r="J415" s="1" t="n">
         <v>450</v>
       </c>
-      <c r="K415" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
@@ -17466,9 +16225,6 @@
       <c r="J416" s="1" t="n">
         <v>664</v>
       </c>
-      <c r="K416" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
@@ -17501,9 +16257,6 @@
       <c r="J417" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="K417" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
@@ -17536,9 +16289,6 @@
       <c r="J418" s="1" t="n">
         <v>773</v>
       </c>
-      <c r="K418" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
@@ -17571,9 +16321,6 @@
       <c r="J419" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="K419" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
@@ -17606,9 +16353,6 @@
       <c r="J420" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="K420" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
@@ -17641,9 +16385,6 @@
       <c r="J421" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="K421" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
@@ -17676,9 +16417,6 @@
       <c r="J422" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K422" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
@@ -17711,9 +16449,6 @@
       <c r="J423" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="K423" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
@@ -17746,9 +16481,6 @@
       <c r="J424" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="K424" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
@@ -17781,9 +16513,6 @@
       <c r="J425" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="K425" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
@@ -17816,9 +16545,6 @@
       <c r="J426" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="K426" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
@@ -17851,9 +16577,6 @@
       <c r="J427" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="K427" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
@@ -17886,9 +16609,6 @@
       <c r="J428" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="K428" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
@@ -17921,9 +16641,6 @@
       <c r="J429" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="K429" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
@@ -17956,9 +16673,6 @@
       <c r="J430" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="K430" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
@@ -17991,9 +16705,6 @@
       <c r="J431" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="K431" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
@@ -18026,9 +16737,6 @@
       <c r="J432" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="K432" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
@@ -18061,9 +16769,6 @@
       <c r="J433" s="1" t="n">
         <v>949</v>
       </c>
-      <c r="K433" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
@@ -18096,9 +16801,6 @@
       <c r="J434" s="1" t="n">
         <v>420</v>
       </c>
-      <c r="K434" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
@@ -18131,9 +16833,6 @@
       <c r="J435" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="K435" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
@@ -18166,9 +16865,6 @@
       <c r="J436" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="K436" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
@@ -18201,9 +16897,6 @@
       <c r="J437" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="K437" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
@@ -18236,9 +16929,6 @@
       <c r="J438" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="K438" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
@@ -18271,9 +16961,6 @@
       <c r="J439" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="K439" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
@@ -18306,9 +16993,6 @@
       <c r="J440" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="K440" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
@@ -18341,9 +17025,6 @@
       <c r="J441" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="K441" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
@@ -18376,9 +17057,6 @@
       <c r="J442" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="K442" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
@@ -18411,9 +17089,6 @@
       <c r="J443" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="K443" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
@@ -18446,9 +17121,6 @@
       <c r="J444" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K444" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
@@ -18481,9 +17153,6 @@
       <c r="J445" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="K445" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
@@ -18516,9 +17185,6 @@
       <c r="J446" s="1" t="n">
         <v>989</v>
       </c>
-      <c r="K446" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
@@ -18551,9 +17217,6 @@
       <c r="J447" s="1" t="n">
         <v>578</v>
       </c>
-      <c r="K447" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
@@ -18586,9 +17249,6 @@
       <c r="J448" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="K448" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
@@ -18621,9 +17281,6 @@
       <c r="J449" s="1" t="n">
         <v>8369</v>
       </c>
-      <c r="K449" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
@@ -18656,9 +17313,6 @@
       <c r="J450" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="K450" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
@@ -18691,9 +17345,6 @@
       <c r="J451" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="K451" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
@@ -18726,9 +17377,6 @@
       <c r="J452" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="K452" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
@@ -18761,9 +17409,6 @@
       <c r="J453" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="K453" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
@@ -18796,9 +17441,6 @@
       <c r="J454" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="K454" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
@@ -18831,9 +17473,6 @@
       <c r="J455" s="1" t="n">
         <v>444</v>
       </c>
-      <c r="K455" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
@@ -18866,9 +17505,6 @@
       <c r="J456" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="K456" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
@@ -18901,9 +17537,6 @@
       <c r="J457" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="K457" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
@@ -18936,9 +17569,6 @@
       <c r="J458" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="K458" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
@@ -18971,9 +17601,6 @@
       <c r="J459" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="K459" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
@@ -19006,9 +17633,6 @@
       <c r="J460" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="K460" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
@@ -19041,9 +17665,6 @@
       <c r="J461" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="K461" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
@@ -19076,9 +17697,6 @@
       <c r="J462" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="K462" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
@@ -19111,9 +17729,6 @@
       <c r="J463" s="1" t="n">
         <v>427</v>
       </c>
-      <c r="K463" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
@@ -19146,9 +17761,6 @@
       <c r="J464" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K464" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
@@ -19181,9 +17793,6 @@
       <c r="J465" s="1" t="n">
         <v>19572</v>
       </c>
-      <c r="K465" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
@@ -19216,9 +17825,6 @@
       <c r="J466" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="K466" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
@@ -19251,9 +17857,6 @@
       <c r="J467" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K467" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
@@ -19286,9 +17889,6 @@
       <c r="J468" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="K468" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
@@ -19321,9 +17921,6 @@
       <c r="J469" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="K469" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
@@ -19356,9 +17953,6 @@
       <c r="J470" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="K470" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
@@ -19391,9 +17985,6 @@
       <c r="J471" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="K471" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
@@ -19426,9 +18017,6 @@
       <c r="J472" s="1" t="n">
         <v>2219</v>
       </c>
-      <c r="K472" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
@@ -19461,9 +18049,6 @@
       <c r="J473" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="K473" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
@@ -19496,9 +18081,6 @@
       <c r="J474" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="K474" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
@@ -19531,9 +18113,6 @@
       <c r="J475" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="K475" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
@@ -19566,9 +18145,6 @@
       <c r="J476" s="1" t="n">
         <v>8463</v>
       </c>
-      <c r="K476" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
@@ -19601,9 +18177,6 @@
       <c r="J477" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="K477" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
@@ -19636,9 +18209,6 @@
       <c r="J478" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="K478" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
@@ -19671,9 +18241,6 @@
       <c r="J479" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="K479" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
@@ -19706,9 +18273,6 @@
       <c r="J480" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="K480" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
@@ -19741,9 +18305,6 @@
       <c r="J481" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="K481" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
@@ -19776,9 +18337,6 @@
       <c r="J482" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="K482" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
@@ -19811,9 +18369,6 @@
       <c r="J483" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="K483" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
@@ -19846,9 +18401,6 @@
       <c r="J484" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="K484" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
@@ -19881,9 +18433,6 @@
       <c r="J485" s="1" t="n">
         <v>8459</v>
       </c>
-      <c r="K485" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
@@ -19916,9 +18465,6 @@
       <c r="J486" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="K486" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
@@ -19951,9 +18497,6 @@
       <c r="J487" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="K487" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
@@ -19986,9 +18529,6 @@
       <c r="J488" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="K488" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
@@ -20021,9 +18561,6 @@
       <c r="J489" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="K489" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
@@ -20056,9 +18593,6 @@
       <c r="J490" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="K490" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
@@ -20091,9 +18625,6 @@
       <c r="J491" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K491" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
@@ -20126,9 +18657,6 @@
       <c r="J492" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="K492" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
@@ -20161,9 +18689,6 @@
       <c r="J493" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="K493" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
@@ -20196,9 +18721,6 @@
       <c r="J494" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K494" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
@@ -20231,9 +18753,6 @@
       <c r="J495" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="K495" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
@@ -20266,9 +18785,6 @@
       <c r="J496" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="K496" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
@@ -20301,9 +18817,6 @@
       <c r="J497" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K497" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
@@ -20336,9 +18849,6 @@
       <c r="J498" s="1" t="n">
         <v>2881</v>
       </c>
-      <c r="K498" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
@@ -20371,9 +18881,6 @@
       <c r="J499" s="1" t="n">
         <v>1694</v>
       </c>
-      <c r="K499" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
@@ -20406,9 +18913,6 @@
       <c r="J500" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="K500" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
@@ -20441,9 +18945,6 @@
       <c r="J501" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="K501" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
@@ -20476,9 +18977,6 @@
       <c r="J502" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="K502" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
@@ -20511,9 +19009,6 @@
       <c r="J503" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="K503" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
@@ -20546,9 +19041,6 @@
       <c r="J504" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="K504" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
@@ -20581,9 +19073,6 @@
       <c r="J505" s="1" t="n">
         <v>644</v>
       </c>
-      <c r="K505" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
@@ -20616,9 +19105,6 @@
       <c r="J506" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="K506" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
@@ -20651,9 +19137,6 @@
       <c r="J507" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="K507" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
@@ -20686,9 +19169,6 @@
       <c r="J508" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="K508" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
@@ -20721,9 +19201,6 @@
       <c r="J509" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="K509" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
@@ -20756,9 +19233,6 @@
       <c r="J510" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="K510" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
@@ -20791,9 +19265,6 @@
       <c r="J511" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="K511" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
@@ -20826,9 +19297,6 @@
       <c r="J512" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="K512" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
@@ -20861,9 +19329,6 @@
       <c r="J513" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="K513" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
@@ -20896,9 +19361,6 @@
       <c r="J514" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="K514" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
@@ -20931,9 +19393,6 @@
       <c r="J515" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="K515" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
@@ -20966,9 +19425,6 @@
       <c r="J516" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="K516" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
@@ -21001,9 +19457,6 @@
       <c r="J517" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="K517" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
@@ -21036,9 +19489,6 @@
       <c r="J518" s="1" t="n">
         <v>578</v>
       </c>
-      <c r="K518" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
@@ -21071,9 +19521,6 @@
       <c r="J519" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="K519" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
@@ -21106,9 +19553,6 @@
       <c r="J520" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="K520" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
@@ -21141,9 +19585,6 @@
       <c r="J521" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K521" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
@@ -21176,9 +19617,6 @@
       <c r="J522" s="1" t="n">
         <v>1813</v>
       </c>
-      <c r="K522" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
@@ -21211,9 +19649,6 @@
       <c r="J523" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="K523" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
@@ -21246,9 +19681,6 @@
       <c r="J524" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="K524" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
@@ -21281,9 +19713,6 @@
       <c r="J525" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="K525" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
@@ -21316,9 +19745,6 @@
       <c r="J526" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="K526" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
@@ -21351,9 +19777,6 @@
       <c r="J527" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="K527" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
@@ -21386,9 +19809,6 @@
       <c r="J528" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="K528" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
@@ -21421,9 +19841,6 @@
       <c r="J529" s="1" t="n">
         <v>442</v>
       </c>
-      <c r="K529" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
@@ -21456,9 +19873,6 @@
       <c r="J530" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="K530" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
@@ -21491,9 +19905,6 @@
       <c r="J531" s="1" t="n">
         <v>1929</v>
       </c>
-      <c r="K531" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
@@ -21526,9 +19937,6 @@
       <c r="J532" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="K532" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
@@ -21561,9 +19969,6 @@
       <c r="J533" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K533" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
@@ -21596,9 +20001,6 @@
       <c r="J534" s="1" t="n">
         <v>51894</v>
       </c>
-      <c r="K534" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
@@ -21631,9 +20033,6 @@
       <c r="J535" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="K535" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
@@ -21666,9 +20065,6 @@
       <c r="J536" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="K536" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
@@ -21701,9 +20097,6 @@
       <c r="J537" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="K537" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
@@ -21736,9 +20129,6 @@
       <c r="J538" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="K538" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
@@ -21771,9 +20161,6 @@
       <c r="J539" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="K539" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
@@ -21806,9 +20193,6 @@
       <c r="J540" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="K540" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
@@ -21841,9 +20225,6 @@
       <c r="J541" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="K541" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
@@ -21876,9 +20257,6 @@
       <c r="J542" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="K542" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
@@ -21911,9 +20289,6 @@
       <c r="J543" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="K543" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
@@ -21946,9 +20321,6 @@
       <c r="J544" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="K544" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
@@ -21981,9 +20353,6 @@
       <c r="J545" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="K545" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
@@ -22016,9 +20385,6 @@
       <c r="J546" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="K546" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
@@ -22051,9 +20417,6 @@
       <c r="J547" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="K547" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
@@ -22086,9 +20449,6 @@
       <c r="J548" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="K548" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
@@ -22121,9 +20481,6 @@
       <c r="J549" s="1" t="n">
         <v>1209</v>
       </c>
-      <c r="K549" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
@@ -22156,9 +20513,6 @@
       <c r="J550" s="1" t="n">
         <v>709</v>
       </c>
-      <c r="K550" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
@@ -22191,9 +20545,6 @@
       <c r="J551" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="K551" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
@@ -22226,9 +20577,6 @@
       <c r="J552" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="K552" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
@@ -22261,9 +20609,6 @@
       <c r="J553" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="K553" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
@@ -22296,9 +20641,6 @@
       <c r="J554" s="1" t="n">
         <v>1422</v>
       </c>
-      <c r="K554" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
@@ -22331,9 +20673,6 @@
       <c r="J555" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="K555" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
@@ -22366,9 +20705,6 @@
       <c r="J556" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="K556" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
@@ -22401,9 +20737,6 @@
       <c r="J557" s="1" t="n">
         <v>1217</v>
       </c>
-      <c r="K557" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
@@ -22436,9 +20769,6 @@
       <c r="J558" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="K558" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
@@ -22471,9 +20801,6 @@
       <c r="J559" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="K559" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
@@ -22506,9 +20833,6 @@
       <c r="J560" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="K560" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
@@ -22541,9 +20865,6 @@
       <c r="J561" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="K561" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
@@ -22576,9 +20897,6 @@
       <c r="J562" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="K562" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
@@ -22611,9 +20929,6 @@
       <c r="J563" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="K563" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
@@ -22646,9 +20961,6 @@
       <c r="J564" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="K564" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
@@ -22681,9 +20993,6 @@
       <c r="J565" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="K565" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
@@ -22716,9 +21025,6 @@
       <c r="J566" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="K566" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
@@ -22751,9 +21057,6 @@
       <c r="J567" s="1" t="n">
         <v>4607</v>
       </c>
-      <c r="K567" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
@@ -22786,9 +21089,6 @@
       <c r="J568" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="K568" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
@@ -22821,9 +21121,6 @@
       <c r="J569" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="K569" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
@@ -22856,9 +21153,6 @@
       <c r="J570" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="K570" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
@@ -22891,9 +21185,6 @@
       <c r="J571" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="K571" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
@@ -22926,9 +21217,6 @@
       <c r="J572" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="K572" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
@@ -22961,9 +21249,6 @@
       <c r="J573" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="K573" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
@@ -22996,9 +21281,6 @@
       <c r="J574" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K574" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
@@ -23031,9 +21313,6 @@
       <c r="J575" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="K575" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
@@ -23066,9 +21345,6 @@
       <c r="J576" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K576" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
@@ -23101,9 +21377,6 @@
       <c r="J577" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="K577" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
@@ -23136,9 +21409,6 @@
       <c r="J578" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="K578" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
@@ -23171,9 +21441,6 @@
       <c r="J579" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="K579" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
@@ -23206,9 +21473,6 @@
       <c r="J580" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K580" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
@@ -23241,9 +21505,6 @@
       <c r="J581" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K581" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
@@ -23276,9 +21537,6 @@
       <c r="J582" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="K582" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
@@ -23311,9 +21569,6 @@
       <c r="J583" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="K583" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
@@ -23346,9 +21601,6 @@
       <c r="J584" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="K584" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
@@ -23381,9 +21633,6 @@
       <c r="J585" s="1" t="n">
         <v>2908</v>
       </c>
-      <c r="K585" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
@@ -23416,9 +21665,6 @@
       <c r="J586" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="K586" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
@@ -23451,9 +21697,6 @@
       <c r="J587" s="1" t="n">
         <v>2622</v>
       </c>
-      <c r="K587" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
@@ -23486,9 +21729,6 @@
       <c r="J588" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="K588" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
@@ -23521,9 +21761,6 @@
       <c r="J589" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="K589" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
@@ -23556,9 +21793,6 @@
       <c r="J590" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="K590" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
@@ -23591,9 +21825,6 @@
       <c r="J591" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="K591" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
@@ -23626,9 +21857,6 @@
       <c r="J592" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="K592" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
@@ -23661,9 +21889,6 @@
       <c r="J593" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="K593" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
@@ -23696,9 +21921,6 @@
       <c r="J594" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="K594" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
@@ -23731,9 +21953,6 @@
       <c r="J595" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="K595" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
@@ -23766,9 +21985,6 @@
       <c r="J596" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="K596" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
@@ -23801,9 +22017,6 @@
       <c r="J597" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="K597" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
@@ -23836,9 +22049,6 @@
       <c r="J598" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="K598" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
@@ -23871,9 +22081,6 @@
       <c r="J599" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="K599" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
@@ -23906,9 +22113,6 @@
       <c r="J600" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="K600" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
@@ -23941,9 +22145,6 @@
       <c r="J601" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="K601" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
@@ -23976,9 +22177,6 @@
       <c r="J602" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="K602" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
@@ -24011,9 +22209,6 @@
       <c r="J603" s="1" t="n">
         <v>597</v>
       </c>
-      <c r="K603" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
@@ -24046,9 +22241,6 @@
       <c r="J604" s="1" t="n">
         <v>837</v>
       </c>
-      <c r="K604" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
@@ -24081,9 +22273,6 @@
       <c r="J605" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="K605" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
@@ -24116,9 +22305,6 @@
       <c r="J606" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="K606" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
@@ -24151,9 +22337,6 @@
       <c r="J607" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="K607" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
@@ -24186,9 +22369,6 @@
       <c r="J608" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="K608" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
@@ -24221,9 +22401,6 @@
       <c r="J609" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="K609" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
@@ -24256,9 +22433,6 @@
       <c r="J610" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="K610" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
@@ -24291,9 +22465,6 @@
       <c r="J611" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="K611" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
@@ -24326,9 +22497,6 @@
       <c r="J612" s="1" t="n">
         <v>2631</v>
       </c>
-      <c r="K612" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
@@ -24361,9 +22529,6 @@
       <c r="J613" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="K613" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
@@ -24396,9 +22561,6 @@
       <c r="J614" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="K614" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
@@ -24431,9 +22593,6 @@
       <c r="J615" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="K615" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
@@ -24466,9 +22625,6 @@
       <c r="J616" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="K616" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
@@ -24501,9 +22657,6 @@
       <c r="J617" s="1" t="n">
         <v>1217</v>
       </c>
-      <c r="K617" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
@@ -24536,9 +22689,6 @@
       <c r="J618" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="K618" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
@@ -24571,9 +22721,6 @@
       <c r="J619" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="K619" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
@@ -24606,9 +22753,6 @@
       <c r="J620" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="K620" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
@@ -24641,9 +22785,6 @@
       <c r="J621" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="K621" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
@@ -24676,9 +22817,6 @@
       <c r="J622" s="1" t="n">
         <v>658</v>
       </c>
-      <c r="K622" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
@@ -24711,9 +22849,6 @@
       <c r="J623" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="K623" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
@@ -24746,9 +22881,6 @@
       <c r="J624" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="K624" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
@@ -24781,9 +22913,6 @@
       <c r="J625" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K625" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
@@ -24816,9 +22945,6 @@
       <c r="J626" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="K626" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
@@ -24851,9 +22977,6 @@
       <c r="J627" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="K627" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
@@ -24886,9 +23009,6 @@
       <c r="J628" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="K628" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
@@ -24921,9 +23041,6 @@
       <c r="J629" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="K629" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
@@ -24956,9 +23073,6 @@
       <c r="J630" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K630" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
@@ -24991,9 +23105,6 @@
       <c r="J631" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="K631" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
@@ -25026,9 +23137,6 @@
       <c r="J632" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="K632" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
@@ -25061,9 +23169,6 @@
       <c r="J633" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="K633" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
@@ -25096,9 +23201,6 @@
       <c r="J634" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="K634" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
@@ -25131,9 +23233,6 @@
       <c r="J635" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="K635" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
@@ -25166,9 +23265,6 @@
       <c r="J636" s="1" t="n">
         <v>1319</v>
       </c>
-      <c r="K636" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
@@ -25201,9 +23297,6 @@
       <c r="J637" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="K637" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
@@ -25236,9 +23329,6 @@
       <c r="J638" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="K638" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
@@ -25271,9 +23361,6 @@
       <c r="J639" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="K639" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
@@ -25306,9 +23393,6 @@
       <c r="J640" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="K640" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
@@ -25341,9 +23425,6 @@
       <c r="J641" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="K641" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
@@ -25376,9 +23457,6 @@
       <c r="J642" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="K642" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
@@ -25411,9 +23489,6 @@
       <c r="J643" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="K643" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
@@ -25446,9 +23521,6 @@
       <c r="J644" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="K644" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
@@ -25481,9 +23553,6 @@
       <c r="J645" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="K645" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
@@ -25516,9 +23585,6 @@
       <c r="J646" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="K646" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
@@ -25551,9 +23617,6 @@
       <c r="J647" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="K647" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
@@ -25586,9 +23649,6 @@
       <c r="J648" s="1" t="n">
         <v>3494</v>
       </c>
-      <c r="K648" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
@@ -25621,9 +23681,6 @@
       <c r="J649" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="K649" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
@@ -25656,9 +23713,6 @@
       <c r="J650" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="K650" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
@@ -25691,9 +23745,6 @@
       <c r="J651" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="K651" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
@@ -25726,9 +23777,6 @@
       <c r="J652" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="K652" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
@@ -25761,9 +23809,6 @@
       <c r="J653" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="K653" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
@@ -25796,9 +23841,6 @@
       <c r="J654" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="K654" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
@@ -25831,9 +23873,6 @@
       <c r="J655" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="K655" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
@@ -25866,9 +23905,6 @@
       <c r="J656" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="K656" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
@@ -25901,9 +23937,6 @@
       <c r="J657" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="K657" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
@@ -25936,9 +23969,6 @@
       <c r="J658" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="K658" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
@@ -25971,9 +24001,6 @@
       <c r="J659" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="K659" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
@@ -26006,9 +24033,6 @@
       <c r="J660" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="K660" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
@@ -26041,9 +24065,6 @@
       <c r="J661" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="K661" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
@@ -26076,9 +24097,6 @@
       <c r="J662" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="K662" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
@@ -26111,9 +24129,6 @@
       <c r="J663" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="K663" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
@@ -26146,9 +24161,6 @@
       <c r="J664" s="1" t="n">
         <v>1007</v>
       </c>
-      <c r="K664" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
@@ -26181,9 +24193,6 @@
       <c r="J665" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="K665" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
@@ -26216,9 +24225,6 @@
       <c r="J666" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="K666" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
@@ -26251,9 +24257,6 @@
       <c r="J667" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="K667" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
@@ -26286,9 +24289,6 @@
       <c r="J668" s="1" t="n">
         <v>4097</v>
       </c>
-      <c r="K668" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
@@ -26321,9 +24321,6 @@
       <c r="J669" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="K669" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
@@ -26356,9 +24353,6 @@
       <c r="J670" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="K670" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
@@ -26391,9 +24385,6 @@
       <c r="J671" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="K671" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
@@ -26426,9 +24417,6 @@
       <c r="J672" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="K672" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
@@ -26461,9 +24449,6 @@
       <c r="J673" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="K673" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
@@ -26496,9 +24481,6 @@
       <c r="J674" s="1" t="n">
         <v>814</v>
       </c>
-      <c r="K674" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
@@ -26531,9 +24513,6 @@
       <c r="J675" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="K675" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
@@ -26566,9 +24545,6 @@
       <c r="J676" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="K676" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
@@ -26601,9 +24577,6 @@
       <c r="J677" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="K677" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
@@ -26636,9 +24609,6 @@
       <c r="J678" s="1" t="n">
         <v>1026</v>
       </c>
-      <c r="K678" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
@@ -26671,9 +24641,6 @@
       <c r="J679" s="1" t="n">
         <v>1134</v>
       </c>
-      <c r="K679" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
@@ -26706,9 +24673,6 @@
       <c r="J680" s="1" t="n">
         <v>2136</v>
       </c>
-      <c r="K680" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
@@ -26741,9 +24705,6 @@
       <c r="J681" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="K681" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
@@ -26776,9 +24737,6 @@
       <c r="J682" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="K682" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
@@ -26811,9 +24769,6 @@
       <c r="J683" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="K683" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
@@ -26846,9 +24801,6 @@
       <c r="J684" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="K684" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
@@ -26881,9 +24833,6 @@
       <c r="J685" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="K685" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
@@ -26916,9 +24865,6 @@
       <c r="J686" s="1" t="n">
         <v>917</v>
       </c>
-      <c r="K686" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
@@ -26951,9 +24897,6 @@
       <c r="J687" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="K687" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
@@ -26986,9 +24929,6 @@
       <c r="J688" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="K688" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
@@ -27021,9 +24961,6 @@
       <c r="J689" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="K689" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
@@ -27056,9 +24993,6 @@
       <c r="J690" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="K690" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
@@ -27091,9 +25025,6 @@
       <c r="J691" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="K691" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
@@ -27126,9 +25057,6 @@
       <c r="J692" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="K692" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
@@ -27161,9 +25089,6 @@
       <c r="J693" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="K693" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
@@ -27196,9 +25121,6 @@
       <c r="J694" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="K694" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
@@ -27231,9 +25153,6 @@
       <c r="J695" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="K695" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
@@ -27266,9 +25185,6 @@
       <c r="J696" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="K696" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
@@ -27301,9 +25217,6 @@
       <c r="J697" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="K697" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
@@ -27336,9 +25249,6 @@
       <c r="J698" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="K698" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
@@ -27371,9 +25281,6 @@
       <c r="J699" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="K699" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
@@ -27406,9 +25313,6 @@
       <c r="J700" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="K700" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
@@ -27441,9 +25345,6 @@
       <c r="J701" s="1" t="n">
         <v>4654</v>
       </c>
-      <c r="K701" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
@@ -27476,9 +25377,6 @@
       <c r="J702" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="K702" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
@@ -27511,9 +25409,6 @@
       <c r="J703" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="K703" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
@@ -27546,9 +25441,6 @@
       <c r="J704" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="K704" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
@@ -27581,9 +25473,6 @@
       <c r="J705" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="K705" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
@@ -27616,9 +25505,6 @@
       <c r="J706" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="K706" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
@@ -27651,9 +25537,6 @@
       <c r="J707" s="1" t="n">
         <v>1752</v>
       </c>
-      <c r="K707" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
@@ -27686,9 +25569,6 @@
       <c r="J708" s="1" t="n">
         <v>597</v>
       </c>
-      <c r="K708" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
@@ -27721,9 +25601,6 @@
       <c r="J709" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="K709" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
@@ -27756,9 +25633,6 @@
       <c r="J710" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="K710" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="s">
@@ -27791,9 +25665,6 @@
       <c r="J711" s="1" t="n">
         <v>2542</v>
       </c>
-      <c r="K711" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
@@ -27826,9 +25697,6 @@
       <c r="J712" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="K712" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
@@ -27861,9 +25729,6 @@
       <c r="J713" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="K713" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
@@ -27896,9 +25761,6 @@
       <c r="J714" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="K714" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="0" t="s">
@@ -27931,9 +25793,6 @@
       <c r="J715" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="K715" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
@@ -27966,9 +25825,6 @@
       <c r="J716" s="1" t="n">
         <v>1898</v>
       </c>
-      <c r="K716" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
@@ -28001,9 +25857,6 @@
       <c r="J717" s="1" t="n">
         <v>2510</v>
       </c>
-      <c r="K717" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
@@ -28036,9 +25889,6 @@
       <c r="J718" s="1" t="n">
         <v>686</v>
       </c>
-      <c r="K718" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
@@ -28071,9 +25921,6 @@
       <c r="J719" s="1" t="n">
         <v>517</v>
       </c>
-      <c r="K719" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
@@ -28106,9 +25953,6 @@
       <c r="J720" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="K720" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
@@ -28141,9 +25985,6 @@
       <c r="J721" s="1" t="n">
         <v>1151</v>
       </c>
-      <c r="K721" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="0" t="s">
@@ -28176,9 +26017,6 @@
       <c r="J722" s="1" t="n">
         <v>615</v>
       </c>
-      <c r="K722" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
@@ -28211,9 +26049,6 @@
       <c r="J723" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="K723" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
@@ -28246,9 +26081,6 @@
       <c r="J724" s="1" t="n">
         <v>422</v>
       </c>
-      <c r="K724" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
@@ -28281,9 +26113,6 @@
       <c r="J725" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="K725" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
@@ -28316,9 +26145,6 @@
       <c r="J726" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="K726" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
@@ -28351,9 +26177,6 @@
       <c r="J727" s="1" t="n">
         <v>718</v>
       </c>
-      <c r="K727" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
@@ -28386,9 +26209,6 @@
       <c r="J728" s="1" t="n">
         <v>1822</v>
       </c>
-      <c r="K728" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
@@ -28421,9 +26241,6 @@
       <c r="J729" s="1" t="n">
         <v>4157</v>
       </c>
-      <c r="K729" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
@@ -28456,9 +26273,6 @@
       <c r="J730" s="1" t="n">
         <v>656</v>
       </c>
-      <c r="K730" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
@@ -28491,9 +26305,6 @@
       <c r="J731" s="1" t="n">
         <v>3993</v>
       </c>
-      <c r="K731" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
@@ -28526,9 +26337,6 @@
       <c r="J732" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="K732" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
@@ -28561,9 +26369,6 @@
       <c r="J733" s="1" t="n">
         <v>470</v>
       </c>
-      <c r="K733" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
@@ -28596,9 +26401,6 @@
       <c r="J734" s="1" t="n">
         <v>6266</v>
       </c>
-      <c r="K734" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
@@ -28631,9 +26433,6 @@
       <c r="J735" s="1" t="n">
         <v>1210</v>
       </c>
-      <c r="K735" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
@@ -28666,9 +26465,6 @@
       <c r="J736" s="1" t="n">
         <v>18940</v>
       </c>
-      <c r="K736" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
@@ -28701,9 +26497,6 @@
       <c r="J737" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="K737" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
@@ -28736,9 +26529,6 @@
       <c r="J738" s="1" t="n">
         <v>2387</v>
       </c>
-      <c r="K738" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
@@ -28771,9 +26561,6 @@
       <c r="J739" s="1" t="n">
         <v>1135</v>
       </c>
-      <c r="K739" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
@@ -28806,9 +26593,6 @@
       <c r="J740" s="1" t="n">
         <v>1389</v>
       </c>
-      <c r="K740" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
@@ -28841,9 +26625,6 @@
       <c r="J741" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="K741" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
@@ -28876,9 +26657,6 @@
       <c r="J742" s="1" t="n">
         <v>382</v>
       </c>
-      <c r="K742" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
@@ -28911,9 +26689,6 @@
       <c r="J743" s="1" t="n">
         <v>3315</v>
       </c>
-      <c r="K743" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
@@ -28946,9 +26721,6 @@
       <c r="J744" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="K744" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
@@ -28981,9 +26753,6 @@
       <c r="J745" s="1" t="n">
         <v>426</v>
       </c>
-      <c r="K745" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
@@ -29016,9 +26785,6 @@
       <c r="J746" s="1" t="n">
         <v>2691</v>
       </c>
-      <c r="K746" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
@@ -29051,9 +26817,6 @@
       <c r="J747" s="1" t="n">
         <v>427</v>
       </c>
-      <c r="K747" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
@@ -29086,9 +26849,6 @@
       <c r="J748" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="K748" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
@@ -29121,9 +26881,6 @@
       <c r="J749" s="1" t="n">
         <v>1385</v>
       </c>
-      <c r="K749" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
@@ -29156,9 +26913,6 @@
       <c r="J750" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="K750" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
@@ -29191,9 +26945,6 @@
       <c r="J751" s="1" t="n">
         <v>662</v>
       </c>
-      <c r="K751" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
@@ -29226,9 +26977,6 @@
       <c r="J752" s="1" t="n">
         <v>1497</v>
       </c>
-      <c r="K752" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
@@ -29261,9 +27009,6 @@
       <c r="J753" s="1" t="n">
         <v>3609</v>
       </c>
-      <c r="K753" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
@@ -29296,9 +27041,6 @@
       <c r="J754" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="K754" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
@@ -29331,9 +27073,6 @@
       <c r="J755" s="1" t="n">
         <v>1421</v>
       </c>
-      <c r="K755" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
@@ -29366,9 +27105,6 @@
       <c r="J756" s="1" t="n">
         <v>4342</v>
       </c>
-      <c r="K756" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
@@ -29401,9 +27137,6 @@
       <c r="J757" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="K757" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
@@ -29436,9 +27169,6 @@
       <c r="J758" s="1" t="n">
         <v>745</v>
       </c>
-      <c r="K758" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
@@ -29471,9 +27201,6 @@
       <c r="J759" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="K759" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
@@ -29506,9 +27233,6 @@
       <c r="J760" s="1" t="n">
         <v>2494</v>
       </c>
-      <c r="K760" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
@@ -29541,9 +27265,6 @@
       <c r="J761" s="1" t="n">
         <v>2942</v>
       </c>
-      <c r="K761" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
@@ -29576,9 +27297,6 @@
       <c r="J762" s="1" t="n">
         <v>472</v>
       </c>
-      <c r="K762" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
@@ -29611,9 +27329,6 @@
       <c r="J763" s="1" t="n">
         <v>436</v>
       </c>
-      <c r="K763" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
@@ -29646,9 +27361,6 @@
       <c r="J764" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="K764" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
@@ -29681,9 +27393,6 @@
       <c r="J765" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="K765" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
@@ -29716,9 +27425,6 @@
       <c r="J766" s="1" t="n">
         <v>505</v>
       </c>
-      <c r="K766" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="s">
@@ -29751,9 +27457,6 @@
       <c r="J767" s="1" t="n">
         <v>1533</v>
       </c>
-      <c r="K767" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
@@ -29786,9 +27489,6 @@
       <c r="J768" s="1" t="n">
         <v>3182</v>
       </c>
-      <c r="K768" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
@@ -29821,9 +27521,6 @@
       <c r="J769" s="1" t="n">
         <v>7211</v>
       </c>
-      <c r="K769" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
@@ -29856,9 +27553,6 @@
       <c r="J770" s="1" t="n">
         <v>3705</v>
       </c>
-      <c r="K770" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
@@ -29891,9 +27585,6 @@
       <c r="J771" s="1" t="n">
         <v>1258</v>
       </c>
-      <c r="K771" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
@@ -29926,9 +27617,6 @@
       <c r="J772" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="K772" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
@@ -29961,9 +27649,6 @@
       <c r="J773" s="1" t="n">
         <v>1582</v>
       </c>
-      <c r="K773" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="s">
@@ -29996,9 +27681,6 @@
       <c r="J774" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="K774" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
@@ -30031,9 +27713,6 @@
       <c r="J775" s="1" t="n">
         <v>2566</v>
       </c>
-      <c r="K775" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
@@ -30066,9 +27745,6 @@
       <c r="J776" s="1" t="n">
         <v>1138</v>
       </c>
-      <c r="K776" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
@@ -30101,9 +27777,6 @@
       <c r="J777" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="K777" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
@@ -30136,9 +27809,6 @@
       <c r="J778" s="1" t="n">
         <v>4020</v>
       </c>
-      <c r="K778" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
@@ -30171,9 +27841,6 @@
       <c r="J779" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="K779" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
@@ -30206,9 +27873,6 @@
       <c r="J780" s="1" t="n">
         <v>7345</v>
       </c>
-      <c r="K780" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
@@ -30241,9 +27905,6 @@
       <c r="J781" s="1" t="n">
         <v>2585</v>
       </c>
-      <c r="K781" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
@@ -30276,9 +27937,6 @@
       <c r="J782" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="K782" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
@@ -30311,9 +27969,6 @@
       <c r="J783" s="1" t="n">
         <v>1708</v>
       </c>
-      <c r="K783" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
@@ -30346,9 +28001,6 @@
       <c r="J784" s="1" t="n">
         <v>1593</v>
       </c>
-      <c r="K784" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
@@ -30381,9 +28033,6 @@
       <c r="J785" s="1" t="n">
         <v>1634</v>
       </c>
-      <c r="K785" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
@@ -30416,9 +28065,6 @@
       <c r="J786" s="1" t="n">
         <v>606</v>
       </c>
-      <c r="K786" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
@@ -30451,9 +28097,6 @@
       <c r="J787" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="K787" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
@@ -30486,9 +28129,6 @@
       <c r="J788" s="1" t="n">
         <v>412</v>
       </c>
-      <c r="K788" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
@@ -30521,9 +28161,6 @@
       <c r="J789" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="K789" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
@@ -30556,9 +28193,6 @@
       <c r="J790" s="1" t="n">
         <v>599</v>
       </c>
-      <c r="K790" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
@@ -30591,9 +28225,6 @@
       <c r="J791" s="1" t="n">
         <v>726</v>
       </c>
-      <c r="K791" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
@@ -30626,9 +28257,6 @@
       <c r="J792" s="1" t="n">
         <v>1216</v>
       </c>
-      <c r="K792" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
@@ -30661,9 +28289,6 @@
       <c r="J793" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="K793" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
@@ -30696,9 +28321,6 @@
       <c r="J794" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="K794" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
@@ -30731,9 +28353,6 @@
       <c r="J795" s="1" t="n">
         <v>17464</v>
       </c>
-      <c r="K795" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
@@ -30766,9 +28385,6 @@
       <c r="J796" s="1" t="n">
         <v>1188</v>
       </c>
-      <c r="K796" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="0" t="s">
@@ -30801,9 +28417,6 @@
       <c r="J797" s="1" t="n">
         <v>455</v>
       </c>
-      <c r="K797" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
@@ -30836,9 +28449,6 @@
       <c r="J798" s="1" t="n">
         <v>1940</v>
       </c>
-      <c r="K798" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="0" t="s">
@@ -30871,9 +28481,6 @@
       <c r="J799" s="1" t="n">
         <v>1629</v>
       </c>
-      <c r="K799" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
@@ -30906,9 +28513,6 @@
       <c r="J800" s="1" t="n">
         <v>436</v>
       </c>
-      <c r="K800" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
@@ -30941,9 +28545,6 @@
       <c r="J801" s="1" t="n">
         <v>7910</v>
       </c>
-      <c r="K801" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="s">
@@ -30976,9 +28577,6 @@
       <c r="J802" s="1" t="n">
         <v>2145</v>
       </c>
-      <c r="K802" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="0" t="s">
@@ -31011,9 +28609,6 @@
       <c r="J803" s="2" t="n">
         <v>1466</v>
       </c>
-      <c r="K803" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
@@ -31046,9 +28641,6 @@
       <c r="J804" s="2" t="n">
         <v>336</v>
       </c>
-      <c r="K804" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
@@ -31081,9 +28673,6 @@
       <c r="J805" s="2" t="n">
         <v>480</v>
       </c>
-      <c r="K805" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="s">
@@ -31116,9 +28705,6 @@
       <c r="J806" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="K806" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
@@ -31151,9 +28737,6 @@
       <c r="J807" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="K807" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
@@ -31186,9 +28769,6 @@
       <c r="J808" s="2" t="n">
         <v>489</v>
       </c>
-      <c r="K808" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
@@ -31221,9 +28801,6 @@
       <c r="J809" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="K809" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
@@ -31256,9 +28833,6 @@
       <c r="J810" s="1" t="n">
         <v>1056</v>
       </c>
-      <c r="K810" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
@@ -31291,9 +28865,6 @@
       <c r="J811" s="1" t="n">
         <v>968</v>
       </c>
-      <c r="K811" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
@@ -31326,9 +28897,6 @@
       <c r="J812" s="1" t="n">
         <v>2624</v>
       </c>
-      <c r="K812" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
@@ -31361,9 +28929,6 @@
       <c r="J813" s="1" t="n">
         <v>3876</v>
       </c>
-      <c r="K813" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
@@ -31396,9 +28961,6 @@
       <c r="J814" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="K814" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
@@ -31431,9 +28993,6 @@
       <c r="J815" s="1" t="n">
         <v>3847</v>
       </c>
-      <c r="K815" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
@@ -31466,9 +29025,6 @@
       <c r="J816" s="1" t="n">
         <v>3884</v>
       </c>
-      <c r="K816" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
@@ -31501,9 +29057,6 @@
       <c r="J817" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="K817" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="0" t="s">
@@ -31536,9 +29089,6 @@
       <c r="J818" s="1" t="n">
         <v>458</v>
       </c>
-      <c r="K818" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
@@ -31571,9 +29121,6 @@
       <c r="J819" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="K819" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
@@ -31606,9 +29153,6 @@
       <c r="J820" s="2" t="n">
         <v>7283</v>
       </c>
-      <c r="K820" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
@@ -31641,9 +29185,6 @@
       <c r="J821" s="1" t="n">
         <v>3367</v>
       </c>
-      <c r="K821" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
@@ -31676,9 +29217,6 @@
       <c r="J822" s="1" t="n">
         <v>541</v>
       </c>
-      <c r="K822" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
@@ -31711,9 +29249,6 @@
       <c r="J823" s="1" t="n">
         <v>3331</v>
       </c>
-      <c r="K823" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
@@ -31746,9 +29281,6 @@
       <c r="J824" s="1" t="n">
         <v>1626</v>
       </c>
-      <c r="K824" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
@@ -31781,9 +29313,6 @@
       <c r="J825" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="K825" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
@@ -31816,9 +29345,6 @@
       <c r="J826" s="1" t="n">
         <v>1805</v>
       </c>
-      <c r="K826" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
@@ -31851,9 +29377,6 @@
       <c r="J827" s="1" t="n">
         <v>2086</v>
       </c>
-      <c r="K827" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
@@ -31886,9 +29409,6 @@
       <c r="J828" s="1" t="n">
         <v>452</v>
       </c>
-      <c r="K828" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
@@ -31921,9 +29441,6 @@
       <c r="J829" s="1" t="n">
         <v>2475</v>
       </c>
-      <c r="K829" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
@@ -31956,9 +29473,6 @@
       <c r="J830" s="1" t="n">
         <v>827</v>
       </c>
-      <c r="K830" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
@@ -31991,9 +29505,6 @@
       <c r="J831" s="1" t="n">
         <v>820</v>
       </c>
-      <c r="K831" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
@@ -32026,9 +29537,6 @@
       <c r="J832" s="1" t="n">
         <v>1940</v>
       </c>
-      <c r="K832" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
@@ -32061,9 +29569,6 @@
       <c r="J833" s="1" t="n">
         <v>3499</v>
       </c>
-      <c r="K833" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
@@ -32096,9 +29601,6 @@
       <c r="J834" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="K834" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="0" t="s">
@@ -32131,9 +29633,6 @@
       <c r="J835" s="1" t="n">
         <v>5817</v>
       </c>
-      <c r="K835" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
@@ -32157,8 +29656,8 @@
       <c r="G836" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H836" s="0" t="n">
-        <v>0</v>
+      <c r="H836" s="3" t="n">
+        <v>38543</v>
       </c>
       <c r="I836" s="0" t="n">
         <v>0</v>
@@ -32166,9 +29665,6 @@
       <c r="J836" s="1" t="n">
         <v>6414</v>
       </c>
-      <c r="K836" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="0" t="s">
@@ -32201,9 +29697,6 @@
       <c r="J837" s="1" t="n">
         <v>3792</v>
       </c>
-      <c r="K837" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="0" t="s">
@@ -32236,9 +29729,6 @@
       <c r="J838" s="1" t="n">
         <v>2179</v>
       </c>
-      <c r="K838" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="0" t="s">
@@ -32271,9 +29761,6 @@
       <c r="J839" s="1" t="n">
         <v>1789</v>
       </c>
-      <c r="K839" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
@@ -32306,9 +29793,6 @@
       <c r="J840" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="K840" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
@@ -32341,9 +29825,6 @@
       <c r="J841" s="1" t="n">
         <v>937</v>
       </c>
-      <c r="K841" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
@@ -32376,9 +29857,6 @@
       <c r="J842" s="1" t="n">
         <v>2769</v>
       </c>
-      <c r="K842" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="0" t="s">
@@ -32411,9 +29889,6 @@
       <c r="J843" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="K843" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="0" t="s">
@@ -32446,9 +29921,6 @@
       <c r="J844" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="K844" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
@@ -32481,9 +29953,6 @@
       <c r="J845" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="K845" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="0" t="s">
@@ -32516,9 +29985,6 @@
       <c r="J846" s="1" t="n">
         <v>2643</v>
       </c>
-      <c r="K846" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
@@ -32551,9 +30017,6 @@
       <c r="J847" s="1" t="n">
         <v>3057</v>
       </c>
-      <c r="K847" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="0" t="s">
@@ -32586,9 +30049,6 @@
       <c r="J848" s="1" t="n">
         <v>1727</v>
       </c>
-      <c r="K848" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="0" t="s">
@@ -32621,9 +30081,6 @@
       <c r="J849" s="1" t="n">
         <v>3661</v>
       </c>
-      <c r="K849" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="s">
@@ -32656,9 +30113,6 @@
       <c r="J850" s="1" t="n">
         <v>6003</v>
       </c>
-      <c r="K850" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
@@ -32691,9 +30145,6 @@
       <c r="J851" s="1" t="n">
         <v>1806</v>
       </c>
-      <c r="K851" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="0" t="s">
@@ -32726,9 +30177,6 @@
       <c r="J852" s="1" t="n">
         <v>977</v>
       </c>
-      <c r="K852" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="s">
@@ -32761,9 +30209,6 @@
       <c r="J853" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="K853" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="0" t="s">
@@ -32796,9 +30241,6 @@
       <c r="J854" s="1" t="n">
         <v>1269</v>
       </c>
-      <c r="K854" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="s">
@@ -32831,9 +30273,6 @@
       <c r="J855" s="1" t="n">
         <v>1188</v>
       </c>
-      <c r="K855" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="0" t="s">
@@ -32866,9 +30305,6 @@
       <c r="J856" s="1" t="n">
         <v>8066</v>
       </c>
-      <c r="K856" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="0" t="s">
@@ -32901,9 +30337,6 @@
       <c r="J857" s="1" t="n">
         <v>1093</v>
       </c>
-      <c r="K857" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
@@ -32936,9 +30369,6 @@
       <c r="J858" s="1" t="n">
         <v>758</v>
       </c>
-      <c r="K858" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
@@ -32971,9 +30401,6 @@
       <c r="J859" s="1" t="n">
         <v>3396</v>
       </c>
-      <c r="K859" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="0" t="s">
@@ -33006,9 +30433,6 @@
       <c r="J860" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="K860" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="s">
@@ -33041,9 +30465,6 @@
       <c r="J861" s="1" t="n">
         <v>595</v>
       </c>
-      <c r="K861" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="0" t="s">
@@ -33076,9 +30497,6 @@
       <c r="J862" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="K862" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
@@ -33111,9 +30529,6 @@
       <c r="J863" s="1" t="n">
         <v>518</v>
       </c>
-      <c r="K863" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="0" t="s">
@@ -33146,9 +30561,6 @@
       <c r="J864" s="1" t="n">
         <v>466</v>
       </c>
-      <c r="K864" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="s">
@@ -33181,9 +30593,6 @@
       <c r="J865" s="1" t="n">
         <v>485</v>
       </c>
-      <c r="K865" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="s">
@@ -33216,9 +30625,6 @@
       <c r="J866" s="1" t="n">
         <v>566</v>
       </c>
-      <c r="K866" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
@@ -33251,9 +30657,6 @@
       <c r="J867" s="1" t="n">
         <v>1911</v>
       </c>
-      <c r="K867" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
@@ -33286,9 +30689,6 @@
       <c r="J868" s="1" t="n">
         <v>1534</v>
       </c>
-      <c r="K868" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="0" t="s">
@@ -33321,9 +30721,6 @@
       <c r="J869" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="K869" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
@@ -33356,9 +30753,6 @@
       <c r="J870" s="1" t="n">
         <v>3461</v>
       </c>
-      <c r="K870" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
@@ -33391,9 +30785,6 @@
       <c r="J871" s="1" t="n">
         <v>2229</v>
       </c>
-      <c r="K871" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
@@ -33426,9 +30817,6 @@
       <c r="J872" s="1" t="n">
         <v>2327</v>
       </c>
-      <c r="K872" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
@@ -33461,9 +30849,6 @@
       <c r="J873" s="1" t="n">
         <v>784</v>
       </c>
-      <c r="K873" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="0" t="s">
@@ -33496,9 +30881,6 @@
       <c r="J874" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="K874" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="0" t="s">
@@ -33531,9 +30913,6 @@
       <c r="J875" s="1" t="n">
         <v>1054</v>
       </c>
-      <c r="K875" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="0" t="s">
@@ -33566,9 +30945,6 @@
       <c r="J876" s="1" t="n">
         <v>13693</v>
       </c>
-      <c r="K876" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
@@ -33601,9 +30977,6 @@
       <c r="J877" s="1" t="n">
         <v>623</v>
       </c>
-      <c r="K877" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
@@ -33636,9 +31009,6 @@
       <c r="J878" s="1" t="n">
         <v>7453</v>
       </c>
-      <c r="K878" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
@@ -33671,9 +31041,6 @@
       <c r="J879" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="K879" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
@@ -33706,9 +31073,6 @@
       <c r="J880" s="1" t="n">
         <v>50534</v>
       </c>
-      <c r="K880" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
@@ -33741,9 +31105,6 @@
       <c r="J881" s="1" t="n">
         <v>1515</v>
       </c>
-      <c r="K881" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
@@ -33776,9 +31137,6 @@
       <c r="J882" s="1" t="n">
         <v>1369</v>
       </c>
-      <c r="K882" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
@@ -33811,9 +31169,6 @@
       <c r="J883" s="1" t="n">
         <v>55254</v>
       </c>
-      <c r="K883" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="0" t="s">
@@ -33846,9 +31201,6 @@
       <c r="J884" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="K884" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
@@ -33881,9 +31233,6 @@
       <c r="J885" s="1" t="n">
         <v>1358</v>
       </c>
-      <c r="K885" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
@@ -33916,9 +31265,6 @@
       <c r="J886" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="K886" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
@@ -33951,9 +31297,6 @@
       <c r="J887" s="1" t="n">
         <v>582</v>
       </c>
-      <c r="K887" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
@@ -33986,9 +31329,6 @@
       <c r="J888" s="1" t="n">
         <v>8844</v>
       </c>
-      <c r="K888" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
@@ -34021,9 +31361,6 @@
       <c r="J889" s="1" t="n">
         <v>413</v>
       </c>
-      <c r="K889" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
@@ -34056,9 +31393,6 @@
       <c r="J890" s="1" t="n">
         <v>686</v>
       </c>
-      <c r="K890" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
@@ -34091,9 +31425,6 @@
       <c r="J891" s="1" t="n">
         <v>4015</v>
       </c>
-      <c r="K891" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
@@ -34126,9 +31457,6 @@
       <c r="J892" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="K892" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
@@ -34161,9 +31489,6 @@
       <c r="J893" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="K893" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
@@ -34196,9 +31521,6 @@
       <c r="J894" s="1" t="n">
         <v>2919</v>
       </c>
-      <c r="K894" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
@@ -34231,9 +31553,6 @@
       <c r="J895" s="1" t="n">
         <v>1932</v>
       </c>
-      <c r="K895" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
@@ -34266,9 +31585,6 @@
       <c r="J896" s="1" t="n">
         <v>1295</v>
       </c>
-      <c r="K896" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
@@ -34301,9 +31617,6 @@
       <c r="J897" s="1" t="n">
         <v>2304</v>
       </c>
-      <c r="K897" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
@@ -34336,9 +31649,6 @@
       <c r="J898" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="K898" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
@@ -34371,9 +31681,6 @@
       <c r="J899" s="1" t="n">
         <v>2769</v>
       </c>
-      <c r="K899" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
@@ -34406,9 +31713,6 @@
       <c r="J900" s="1" t="n">
         <v>6382</v>
       </c>
-      <c r="K900" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
@@ -34441,9 +31745,6 @@
       <c r="J901" s="1" t="n">
         <v>3694</v>
       </c>
-      <c r="K901" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
@@ -34476,9 +31777,6 @@
       <c r="J902" s="1" t="n">
         <v>2726</v>
       </c>
-      <c r="K902" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
@@ -34511,9 +31809,6 @@
       <c r="J903" s="1" t="n">
         <v>670</v>
       </c>
-      <c r="K903" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
@@ -34546,9 +31841,6 @@
       <c r="J904" s="1" t="n">
         <v>514</v>
       </c>
-      <c r="K904" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
@@ -34581,9 +31873,6 @@
       <c r="J905" s="1" t="n">
         <v>548</v>
       </c>
-      <c r="K905" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
@@ -34616,9 +31905,6 @@
       <c r="J906" s="1" t="n">
         <v>2536</v>
       </c>
-      <c r="K906" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
@@ -34651,9 +31937,6 @@
       <c r="J907" s="1" t="n">
         <v>656</v>
       </c>
-      <c r="K907" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
@@ -34686,9 +31969,6 @@
       <c r="J908" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="K908" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
@@ -34721,9 +32001,6 @@
       <c r="J909" s="1" t="n">
         <v>1924</v>
       </c>
-      <c r="K909" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
@@ -34756,9 +32033,6 @@
       <c r="J910" s="1" t="n">
         <v>1302</v>
       </c>
-      <c r="K910" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
@@ -34791,9 +32065,6 @@
       <c r="J911" s="1" t="n">
         <v>2124</v>
       </c>
-      <c r="K911" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
@@ -34826,9 +32097,6 @@
       <c r="J912" s="1" t="n">
         <v>1585</v>
       </c>
-      <c r="K912" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
@@ -34861,9 +32129,6 @@
       <c r="J913" s="1" t="n">
         <v>3172</v>
       </c>
-      <c r="K913" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
@@ -34896,9 +32161,6 @@
       <c r="J914" s="1" t="n">
         <v>4701</v>
       </c>
-      <c r="K914" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
@@ -34931,9 +32193,6 @@
       <c r="J915" s="1" t="n">
         <v>4197</v>
       </c>
-      <c r="K915" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
@@ -34966,9 +32225,6 @@
       <c r="J916" s="1" t="n">
         <v>3635</v>
       </c>
-      <c r="K916" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
@@ -35001,9 +32257,6 @@
       <c r="J917" s="1" t="n">
         <v>2872</v>
       </c>
-      <c r="K917" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
@@ -35036,9 +32289,6 @@
       <c r="J918" s="1" t="n">
         <v>643</v>
       </c>
-      <c r="K918" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
@@ -35070,9 +32320,6 @@
       </c>
       <c r="J919" s="1" t="n">
         <v>7286</v>
-      </c>
-      <c r="K919" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
